--- a/Dados/DadosAprendizado.xlsx
+++ b/Dados/DadosAprendizado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Biblioteca\Documentos\USP\FCD\Projeto-Sementes\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C01A6FCB-A61F-45AE-AFF3-D9F8612F23D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CFB147-9A5F-4144-B20F-69AB30EF87AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5824C614-D8C0-4EF2-AFFD-50FAD2E80C64}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="10">
   <si>
     <t>Controle</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Não</t>
+  </si>
+  <si>
+    <t>Nao</t>
   </si>
 </sst>
 </file>
@@ -433,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236154F4-A523-45FB-A7AB-8B6B9568947F}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -550,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -594,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -638,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -682,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -715,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -726,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -770,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -803,7 +806,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -814,7 +817,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -858,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -891,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -902,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -990,7 +993,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1034,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1067,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1078,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1133,7 +1136,7 @@
         <v>3</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">

--- a/Dados/DadosAprendizado.xlsx
+++ b/Dados/DadosAprendizado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Biblioteca\Documentos\USP\FCD\Projeto-Sementes\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CFB147-9A5F-4144-B20F-69AB30EF87AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D83824-7C4B-4E3C-84B3-10D0D84D448B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5824C614-D8C0-4EF2-AFFD-50FAD2E80C64}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="9">
   <si>
     <t>Controle</t>
   </si>
@@ -45,16 +45,13 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t>Germinou?</t>
-  </si>
-  <si>
     <t>Sim</t>
   </si>
   <si>
-    <t>Não</t>
+    <t>Nao</t>
   </si>
   <si>
-    <t>Nao</t>
+    <t>Germinou</t>
   </si>
 </sst>
 </file>
@@ -436,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236154F4-A523-45FB-A7AB-8B6B9568947F}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -467,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -481,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -494,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -507,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -520,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -531,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -542,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -553,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -564,7 +561,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -575,7 +572,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -586,7 +583,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -597,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -608,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -619,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -630,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -641,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -652,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -663,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -674,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -685,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -696,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -707,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -718,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -729,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -740,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -751,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -762,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -773,7 +770,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -784,7 +781,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -795,7 +792,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -806,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -817,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -828,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -850,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -861,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -894,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -916,7 +913,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -927,7 +924,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -938,7 +935,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -960,7 +957,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -971,7 +968,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -982,7 +979,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -993,7 +990,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1004,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1015,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1026,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1037,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1048,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1059,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1070,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1081,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1092,7 +1089,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1103,7 +1100,7 @@
         <v>2</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1114,7 +1111,7 @@
         <v>2</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1125,7 +1122,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1136,7 +1133,7 @@
         <v>3</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1147,7 +1144,7 @@
         <v>3</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1158,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1169,7 +1166,7 @@
         <v>3</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
